--- a/Planilha de bugs.xlsx
+++ b/Planilha de bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joao\TesteTecnicoQApmweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB921E-6F8A-454C-AB03-B5E09E00E428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A2189-6ED8-45A2-875E-89D2DA118A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6225" yWindow="2835" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,15 @@
     <definedName name="Z_81A2EA61_B3B6_4F2D_9922_025FC6D5C4D1_.wvu.FilterData" localSheetId="0" hidden="1">Bugs!$A$1:$M$51</definedName>
     <definedName name="Z_81A2EA61_B3B6_4F2D_9922_025FC6D5C4D1_.wvu.FilterData" localSheetId="1" hidden="1">'RequisitosCasos de Uso'!$A$1:$D$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filtro 1" guid="{81A2EA61-B3B6-4F2D-9922-025FC6D5C4D1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -144,6 +131,30 @@
   </si>
   <si>
     <t>O Teste executa o processo de compra com valor igual a 100, ganhando o frete gratis, porem, foi solicitado que, ao realizar a compra com frete gratis, deveria aparecer a mensagem 'VOCE GANHOU FRETE GRATIS' (essa mensagem esta localizada na 'Minha Sacola, com o display: block), mas como é em um ambiente controlado, estou liberando o teste</t>
+  </si>
+  <si>
+    <t>Teste executa o processo de compra com valor a baixo de 100, e confere valores da versao Default e ao após concluir a compra com os valores encontrados na pagina checkout</t>
+  </si>
+  <si>
+    <t>home, com filtro(vegano/semLactose)</t>
+  </si>
+  <si>
+    <t>baixa</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>windows/chrome</t>
+  </si>
+  <si>
+    <t>Por algum motivo ao rodar o cypress, o front sofreu alteracao, meio que alterando propriedade html do item</t>
+  </si>
+  <si>
+    <t>..\TesteTecnicoQApmweb\Projeto Cypress\cypress\screenshots\bug01</t>
+  </si>
+  <si>
+    <t>Não atrapalha em nada, é necessario duplicar a mensagem para chegar, porem muito estranho</t>
   </si>
 </sst>
 </file>
@@ -153,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -201,12 +212,6 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Trebuchet MS"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -218,6 +223,27 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -289,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,7 +341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,23 +375,27 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +752,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -730,7 +760,7 @@
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -745,7 +775,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -785,6 +815,27 @@
     <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,7 +1099,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1624,7 +1675,7 @@
   <customSheetViews>
     <customSheetView guid="{81A2EA61-B3B6-4F2D-9922-025FC6D5C4D1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:M51" xr:uid="{54B550E5-DC90-48DC-A034-C84CB69C06F4}"/>
+      <autoFilter ref="A1:M51" xr:uid="{94C6E479-AC99-41CA-9BB7-252A69FA4664}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="F3:F51">
@@ -1656,42 +1707,18 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>config!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>config!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F51</xm:sqref>
+          <xm:sqref>F3:J51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Administrador\Documents\Requisitos\[Casos de Uso]Casos de Uso'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>config!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>config!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>config!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3:J51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -1714,7 +1741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1726,16 +1753,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1764,7 +1791,7 @@
         <v>✓</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1794,7 +1821,7 @@
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1810,7 +1837,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("COUNT(QUERY(Bugs!$A$2:$M11,""select A where B='""&amp;$A6&amp;""' and F&lt;&gt;'' and F&lt;&gt;'4 - [QA] Aprovado' and F&lt;&gt;'5 - Cancelado'"",-1))"),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1826,7 +1853,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("COUNT(QUERY(Bugs!$A$2:$M11,""select A where B='""&amp;$A7&amp;""' and F&lt;&gt;'' and F&lt;&gt;'4 - [QA] Aprovado' and F&lt;&gt;'5 - Cancelado'"",-1))"),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1842,7 +1869,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("COUNT(QUERY(Bugs!$A$2:$M11,""select A where B='""&amp;$A8&amp;""' and F&lt;&gt;'' and F&lt;&gt;'4 - [QA] Aprovado' and F&lt;&gt;'5 - Cancelado'"",-1))"),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1857,7 +1884,7 @@
       <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1873,7 +1900,9 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("COUNT(QUERY(Bugs!$A$2:$M11,""select A where B='""&amp;$A10&amp;""' and F&lt;&gt;'' and F&lt;&gt;'4 - [QA] Aprovado' and F&lt;&gt;'5 - Cancelado'"",-1))"),0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
@@ -1893,7 +1922,7 @@
   <customSheetViews>
     <customSheetView guid="{81A2EA61-B3B6-4F2D-9922-025FC6D5C4D1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D11" xr:uid="{7EA1BE65-36A9-440B-A4BF-45B8E7F03FCA}"/>
+      <autoFilter ref="A1:D11" xr:uid="{E2F157C5-1FF3-42B8-A7CA-72419DFE35A5}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B2:B11">
